--- a/Plots/Pancreas_01_CM.xlsx
+++ b/Plots/Pancreas_01_CM.xlsx
@@ -124,7 +124,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9954337899543378</v>
+        <v>1.0</v>
       </c>
       <c r="C2" t="n">
         <v>0.0012315270935960591</v>
@@ -145,7 +145,7 @@
         <v>0.0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.019801980198019802</v>
+        <v>0.0297029702970297</v>
       </c>
     </row>
     <row r="3">
@@ -156,7 +156,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9729064039408867</v>
+        <v>0.9741379310344828</v>
       </c>
       <c r="D3" t="n">
         <v>0.004464285714285714</v>
@@ -185,13 +185,13 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.012315270935960592</v>
+        <v>0.013546798029556651</v>
       </c>
       <c r="D4" t="n">
         <v>0.953125</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02072538860103627</v>
+        <v>0.025906735751295335</v>
       </c>
       <c r="F4" t="n">
         <v>0.0163265306122449</v>
@@ -214,13 +214,13 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0024630541871921183</v>
+        <v>0.0012315270935960591</v>
       </c>
       <c r="D5" t="n">
         <v>0.002232142857142857</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9792746113989638</v>
+        <v>0.9740932642487047</v>
       </c>
       <c r="F5" t="n">
         <v>0.0</v>
@@ -240,10 +240,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0045662100456621</v>
+        <v>0.0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.008620689655172414</v>
+        <v>0.007389162561576354</v>
       </c>
       <c r="D6" t="n">
         <v>0.011160714285714286</v>
@@ -348,7 +348,7 @@
         <v>0.0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9702970297029703</v>
+        <v>0.9603960396039604</v>
       </c>
     </row>
   </sheetData>
@@ -396,7 +396,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9634703196347032</v>
+        <v>0.9771689497716894</v>
       </c>
       <c r="C2" t="n">
         <v>0.0012315270935960591</v>
@@ -408,7 +408,7 @@
         <v>0.0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.053061224489795916</v>
+        <v>0.07755102040816327</v>
       </c>
       <c r="G2" t="n">
         <v>0.0</v>
@@ -428,7 +428,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9556650246305419</v>
+        <v>0.9605911330049262</v>
       </c>
       <c r="D3" t="n">
         <v>0.004464285714285714</v>
@@ -460,7 +460,7 @@
         <v>0.007389162561576354</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9397321428571429</v>
+        <v>0.9441964285714286</v>
       </c>
       <c r="E4" t="n">
         <v>0.02072538860103627</v>
@@ -489,7 +489,7 @@
         <v>0.0012315270935960591</v>
       </c>
       <c r="D5" t="n">
-        <v>0.002232142857142857</v>
+        <v>0.0</v>
       </c>
       <c r="E5" t="n">
         <v>0.9689119170984456</v>
@@ -518,7 +518,7 @@
         <v>0.006157635467980296</v>
       </c>
       <c r="D6" t="n">
-        <v>0.011160714285714286</v>
+        <v>0.008928571428571428</v>
       </c>
       <c r="E6" t="n">
         <v>0.0</v>
@@ -573,7 +573,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0024630541871921183</v>
+        <v>0.0012315270935960591</v>
       </c>
       <c r="D8" t="n">
         <v>0.015625</v>
@@ -591,7 +591,7 @@
         <v>0.0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9603960396039604</v>
+        <v>0.9504950495049505</v>
       </c>
     </row>
     <row r="9">
@@ -599,10 +599,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0365296803652968</v>
+        <v>0.0228310502283105</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02586206896551724</v>
+        <v>0.022167487684729065</v>
       </c>
       <c r="D9" t="n">
         <v>0.017857142857142856</v>
@@ -611,7 +611,7 @@
         <v>0.010362694300518135</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0653061224489796</v>
+        <v>0.04081632653061224</v>
       </c>
       <c r="G9" t="n">
         <v>0.047619047619047616</v>
@@ -620,7 +620,7 @@
         <v>1.0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.019801980198019802</v>
+        <v>0.0297029702970297</v>
       </c>
     </row>
   </sheetData>
